--- a/VarexJSmallScaleEvaluation/Results/NOI/ALLNoi.xlsx
+++ b/VarexJSmallScaleEvaluation/Results/NOI/ALLNoi.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -813,8 +814,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117941248"/>
-        <c:axId val="78162176"/>
+        <c:axId val="126198784"/>
+        <c:axId val="87402752"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -917,11 +918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117942272"/>
-        <c:axId val="78162752"/>
+        <c:axId val="126199808"/>
+        <c:axId val="87403328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117941248"/>
+        <c:axId val="126198784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78162176"/>
+        <c:crossAx val="87402752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78162176"/>
+        <c:axId val="87402752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,12 +950,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117941248"/>
+        <c:crossAx val="126198784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78162752"/>
+        <c:axId val="87403328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +965,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117942272"/>
+        <c:crossAx val="126199808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="117942272"/>
+        <c:axId val="126199808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78162752"/>
+        <c:crossAx val="87403328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,8 +1121,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80787968"/>
-        <c:axId val="78164480"/>
+        <c:axId val="90028544"/>
+        <c:axId val="87405056"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1224,11 +1225,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118760448"/>
-        <c:axId val="78165056"/>
+        <c:axId val="127017984"/>
+        <c:axId val="87405632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80787968"/>
+        <c:axId val="90028544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78164480"/>
+        <c:crossAx val="87405056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1245,7 +1246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78164480"/>
+        <c:axId val="87405056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,12 +1257,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80787968"/>
+        <c:crossAx val="90028544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78165056"/>
+        <c:axId val="87405632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,12 +1272,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118760448"/>
+        <c:crossAx val="127017984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="118760448"/>
+        <c:axId val="127017984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78165056"/>
+        <c:crossAx val="87405632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1670,8 +1671,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118761472"/>
-        <c:axId val="78166784"/>
+        <c:axId val="127019008"/>
+        <c:axId val="87407360"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2017,11 +2018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117943808"/>
-        <c:axId val="78167360"/>
+        <c:axId val="126201344"/>
+        <c:axId val="87407936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118761472"/>
+        <c:axId val="127019008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2030,7 +2031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78166784"/>
+        <c:crossAx val="87407360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2038,7 +2039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78166784"/>
+        <c:axId val="87407360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,12 +2050,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118761472"/>
+        <c:crossAx val="127019008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78167360"/>
+        <c:axId val="87407936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,12 +2065,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117943808"/>
+        <c:crossAx val="126201344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="117943808"/>
+        <c:axId val="126201344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78167360"/>
+        <c:crossAx val="87407936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2088,7 +2089,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4373,11 +4373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119072768"/>
-        <c:axId val="118899840"/>
+        <c:axId val="127264768"/>
+        <c:axId val="127091840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119072768"/>
+        <c:axId val="127264768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4406,7 +4406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118899840"/>
+        <c:crossAx val="127091840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4416,7 +4416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118899840"/>
+        <c:axId val="127091840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -4447,7 +4447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119072768"/>
+        <c:crossAx val="127264768"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6316,11 +6316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119074304"/>
-        <c:axId val="118902144"/>
+        <c:axId val="127266304"/>
+        <c:axId val="127094144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119074304"/>
+        <c:axId val="127266304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6349,7 +6349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118902144"/>
+        <c:crossAx val="127094144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6359,7 +6359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118902144"/>
+        <c:axId val="127094144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -6390,7 +6390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119074304"/>
+        <c:crossAx val="127266304"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8371,11 +8371,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80788480"/>
-        <c:axId val="118904448"/>
+        <c:axId val="90029056"/>
+        <c:axId val="127096448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80788480"/>
+        <c:axId val="90029056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8404,7 +8404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118904448"/>
+        <c:crossAx val="127096448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8414,7 +8414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118904448"/>
+        <c:axId val="127096448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8444,7 +8444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80788480"/>
+        <c:crossAx val="90029056"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8467,6 +8467,6698 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>189.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>323.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>358.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>599.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>880.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1325.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1839.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2529.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3815.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6368.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11601.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22163.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86087.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>171402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>358.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>371.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>367.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>384.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>374.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>371.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>369.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>376.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>383.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>391.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>382.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>402.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>403.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>395.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>395.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>393.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>397.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>393.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>400.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>399.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>394.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>395.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>397.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>414.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>405.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>403.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>397.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>412.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>409.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>415.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>409.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>408.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>400.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>407.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>422.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>410.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>425.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>417.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>402.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>423.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>427.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>438.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>415.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>420.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>414.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>421.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>420.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>413.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>424.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>441.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>424.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>428.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>417.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>422.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>424.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>418.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>418.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>421.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>423.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>428.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>432.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>432.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>426.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>422.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>428.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>425.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>397.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>617.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>827.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1108.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1547.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2170.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2766.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3793</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5883.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10118.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18815.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36225.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72613.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPLat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>105.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>223.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>968.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4216.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8800.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18263.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38125.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79256.666666666672</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>707.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>680.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>676.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>683.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>698.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>693.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>681.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>684.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>688.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>683.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>671.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>676.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>675.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>674.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>678.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>679.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>681.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>685.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>677.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>684.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>681.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>685.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>693.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>697.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>708.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>699.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>685.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>690.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>704.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>690.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>696.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>688.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>695.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>743.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>709.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>704.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>712.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>709.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>713.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>711.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>702.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>703.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>704.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>705.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>702.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>705.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>703.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>708.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>703.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>711.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>705.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>709.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>739.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>713.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>725.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>717.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>714.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>715</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>718.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>717.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>719.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>718.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>720.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>714.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>722.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>720.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>731.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>728.33333333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="140582912"/>
+        <c:axId val="141577600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140582912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Options</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141577600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141577600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140582912"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4086</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16374</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32758</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65526</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>131062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>262134</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>524278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1048566</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2097142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4194294</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8388598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16777206</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33554422</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67108854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1172</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1286</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1324</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1343</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1381</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1419</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1457</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1628</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1647</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1666</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1704</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1723</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1818</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1837</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1894</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$J$2:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40964</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81924</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>163844</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>327684</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>655364</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1310724</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2621444</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5242884</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10485764</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20971524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41943044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$H$2:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>706</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>904</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>926</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1069</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1102</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="141538816"/>
+        <c:axId val="141580480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="141538816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Options</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141580480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141580480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Instructions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141538816"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23075381944444445"/>
+          <c:y val="3.9077203541951828E-2"/>
+          <c:w val="0.71278055555555553"/>
+          <c:h val="0.82621361111111113"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$M$2:$M$102</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-BDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$K$2:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>35.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>36.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>39.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>39.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JPF-SE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$N$2:$N$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>220.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>177.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>260.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPLat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$O$2:$O$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VarexJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>[1]All!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>All!$L$2:$L$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="140581376"/>
+        <c:axId val="142099584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140581376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Options</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142099584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="101"/>
+        <c:tickLblSkip val="10"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="142099584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory Consumptions in MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140581376"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50136979166666662"/>
+          <c:y val="3.0074166666666669E-2"/>
+          <c:w val="0.45453298611111109"/>
+          <c:h val="0.32954583333333332"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8677,6 +15369,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>594000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>470175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>251100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9219,6 +16007,19 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="All"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
@@ -34693,8 +41494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P694"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
